--- a/customSim/LES/systemDefinition/Resource.xlsx
+++ b/customSim/LES/systemDefinition/Resource.xlsx
@@ -2,29 +2,38 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="1710" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Resource" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -38,12 +47,42 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -56,14 +95,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -428,11 +473,16 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10.5703125" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="19.42578125" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22.28515625" bestFit="1" customWidth="1" min="13" max="13"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -802,7 +852,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['process_1']</t>
+          <t>['proc_1']</t>
         </is>
       </c>
     </row>
@@ -1433,74 +1483,74 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>env</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>units</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>cost_per_unit</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>parts</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>capacity</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>holding_capacity</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>skills</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>aggregates</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>upstream_processes</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>downstream_processes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1564,7 +1614,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -1628,7 +1678,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -1692,7 +1742,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -1756,7 +1806,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -1815,12 +1865,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>['process_1']</t>
+          <t>['proc_1']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -1884,7 +1934,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="3" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -1948,7 +1998,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="3" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,7 +2062,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="3" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -2076,7 +2126,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="3" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -2140,7 +2190,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="3" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -2202,7 +2252,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="3" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -2266,7 +2316,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="3" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -2330,7 +2380,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="3" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -2394,7 +2444,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="3" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
